--- a/output/real-estate.xlsx
+++ b/output/real-estate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,395 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Annamaria Stella</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sales Excutive</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>03 9863 8260</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0481 602 108</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/1NIIGTGJcr8QWnumpP2940R_HRk=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/18660/contact_1575921.jpeg?date=637292944627294141</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Jen Lin Lau</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Senior Sales Consultant &amp; Auctioneer - Licensed Es</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>03 9697 8888</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0466 407 555</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/wxFJcgWoZ-cb1TF0hqmz58EqE5Q=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/232/contact_1585964.jpeg?date=637292903138152574</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Robert Eggers</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Director - Licensed Estate Agent AREI (REIV)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>03 9614 6688</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0412 329 340</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/JAXwCWe4E2S0Tvp9dzdHrQBZHSs=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/345/contact_986437.jpeg?date=637292902624336219</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Eddie Zhu</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0396296110</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0452585423</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/4tSJtibJhn0Q3DFAaRaZKxCNfmE=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/32474/contact_1794153.jpeg?date=637509779049411088</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Dionne Wilson</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>03 9664 8100</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>03 9664 8114</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/AUhH4of28NHthMTVQWnEOOvHeY4=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/16216/contact_1880249.jpeg?date=638042079035361409</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Jenny Huo</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>03 9697 8888</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0481 915 796</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/puOAXMykaZykkthLA1wchnvvu6E=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/232/contact_1572061.jpeg?date=637292927238033470</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Anthony Cimino</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>03 9804 5551</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0400 500 903</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/wit1wBZ9idh2VZLp5eIXzIplwgA=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/15712/contact_935984.jpeg?date=637292932480178270</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Sam Fenna</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Partner | Auctioneer</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0393471170</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0437 309 715</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/d6ttFr38KMuUFcIlHyqqtOc4I1U=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/24322/contact_1728691.jpeg?date=638300475081316560</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Kevin Zhang</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Sales Manager (Full Licensed Estate Agent)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>03 9642 2298</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0431336488</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/Dr8c-yus4RnRiEfT_DUT7szjoqg=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/36776/contact_1884388.jpeg?date=638182091103957010</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Sophia Zhu</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Senior Sales Executive</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>03 9242 0088</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0433 962 828</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/C81W8jwi-KErYIm23t2fGGKJA1M=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/11842/contact_1763697.jpeg?date=637689606659017285</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Nick Richards</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0404 099 310</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/k9h1zUpG_3lQ4PKsRn0G2TsulUA=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/19327/contact_1347712.jpeg?date=637292934767354763</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Vincent Duong</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>03 9670 3330</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0432 600 218</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/oGUHSRj_-vS8r_F8djUeGstg-hw=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/17347/contact_1295076.jpeg?date=637292880935003500</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Corene Chan</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Managing Director</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>03 9329 3266</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0499 988 271</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/zjRETXbzY72EentOOvBFOPdARH4=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/24371/contact_1199471.jpeg?date=637634912297313131</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Rhiannon East</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Licenced Estate Agent</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>03 9664 8115</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0417 318 213</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/A1aP2Mdckix6rWRMcwmZyKbL2NM=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/16216/contact_1880297.jpeg?date=638042084799008421</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Max Hui</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Residential Sales</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>03 8102 0200</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0430 238 021</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://rimh2.domainstatic.com.au/Cpq7ZuH-xqKL8X7nA_3FP4dPFPA=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/20626/contact_1760239.jpeg?date=637853620468305625</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
